--- a/mbs-perturbation/nano/elm/smote/nano_elm_tanh_smote_results.xlsx
+++ b/mbs-perturbation/nano/elm/smote/nano_elm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8961038961038961</v>
+        <v>0.5480427046263345</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3254716981132075</v>
+        <v>0.8191489361702128</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4775086505190311</v>
+        <v>0.6567164179104478</v>
       </c>
       <c r="E2" t="n">
-        <v>0.811682755594559</v>
+        <v>0.700970744680851</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.9571428571428572</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3554502369668247</v>
+        <v>0.3621621621621622</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5190311418685121</v>
+        <v>0.5254901960784314</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6935997015973319</v>
+        <v>0.8601016858442601</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9305555555555556</v>
+        <v>0.9591836734693877</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3268292682926829</v>
+        <v>0.2513368983957219</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4837545126353791</v>
+        <v>0.3983050847457627</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7451053967553251</v>
+        <v>0.6625401069518716</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7455621301775148</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6</v>
+        <v>0.2030456852791878</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6649076517150396</v>
+        <v>0.3375527426160337</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8046075837742506</v>
+        <v>0.4887523376970345</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9558823529411765</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2850877192982456</v>
+        <v>0.2654028436018958</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4391891891891892</v>
+        <v>0.4194756554307116</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5347886762360446</v>
+        <v>0.4569824429125377</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8979284792633209</v>
+        <v>0.8928738470477159</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3785677845341922</v>
+        <v>0.380219305121836</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5168782291854301</v>
+        <v>0.4675080193562775</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7179568227915023</v>
+        <v>0.633869463617311</v>
       </c>
     </row>
   </sheetData>
